--- a/public/sample_data.xlsx
+++ b/public/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marion\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5E1B04-AEAE-44FF-A344-5B4E136398B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB2FFBC-E8C6-446F-AC70-0706CA265C61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>Level of Study</t>
   </si>
@@ -84,34 +84,13 @@
     <t>G5Q32T</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Elecl Eng and Elecc Eng</t>
   </si>
   <si>
     <t>H3006U</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>User</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
 </sst>
 </file>
@@ -462,7 +441,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +463,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -537,7 +516,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -572,13 +551,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -613,13 +592,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -654,13 +633,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
@@ -695,16 +674,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -736,16 +715,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G7" s="3">
         <v>21</v>
@@ -777,16 +756,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G8" s="3">
         <v>40</v>
@@ -818,16 +797,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G9" s="3">
         <v>29</v>
